--- a/Files/ExpResult/Du62-RL+遗传算法.xlsx
+++ b/Files/ExpResult/Du62-RL+遗传算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22980" windowHeight="14880"/>
+    <workbookView windowWidth="32580" windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="62">
   <si>
     <t>实例</t>
   </si>
@@ -134,13 +134,85 @@
     <t>[[14, 54, 9, 47, 33, 39, 7], [48, 22, 59, 18, 53, 17], [24, 58, 60, 21, 61, 45], [31, 27, 56, 2, 38, 12, 35], [46, 1, 3, 50, 16, 11, 44, 52, 62], [37, 34, 5, 43, 36, 29, 57, 28, 23], [55, 8, 26, 30, 20, 40, 49, 10], [15, 41, 51, 19, 32, 4, 42, 25, 13, 6]]</t>
   </si>
   <si>
-    <t>最小值</t>
-  </si>
-  <si>
-    <t>平均值</t>
-  </si>
-  <si>
-    <t>最大值</t>
+    <t>[[6, 33, 45, 39, 51, 26, 9, 17], [4, 8, 30, 35, 25, 37], [19, 42, 3, 56, 60, 12, 32, 62], [23, 1, 16, 50, 2, 28, 57, 43, 40, 31], [41, 36, 18, 24, 21, 38, 61, 59, 58], [13, 22, 5, 11, 52, 20, 29, 27, 48, 54], [15, 46, 34, 55, 44, 47, 49, 10, 53, 7, 14]]</t>
+  </si>
+  <si>
+    <t>K分初始解v3-奖励函数v1</t>
+  </si>
+  <si>
+    <t>[[17, 33, 22, 55, 34, 45, 7], [13, 23, 24, 12, 35, 62], [10, 61, 21, 38, 43, 53], [36, 41, 30, 60, 50, 59, 1], [9, 18, 56, 28, 16, 52, 29, 2, 42], [19, 4, 5, 32, 20, 11, 3, 49, 39], [31, 37, 40, 27, 57, 47, 44, 48], [6, 14, 46, 51, 8, 26, 25, 58, 54, 15]]</t>
+  </si>
+  <si>
+    <t>[[7, 54, 39, 19, 33, 9, 17], [53, 49, 47, 52, 2, 62], [10, 32, 40, 36, 27, 6], [22, 20, 38, 56, 28, 35, 42], [13, 29, 11, 16, 60, 61, 57, 59, 45], [4, 58, 44, 50, 21, 30, 18, 1, 23], [48, 25, 43, 12, 3, 24, 55, 31], [14, 41, 46, 26, 5, 51, 8, 37, 34, 15]]</t>
+  </si>
+  <si>
+    <t>[[17, 45, 33, 49, 39, 26, 15], [9, 34, 38, 23, 19, 51], [8, 57, 5, 3, 36, 31], [55, 27, 2, 16, 11, 30, 4], [24, 40, 59, 60, 18, 21, 50, 32, 22], [37, 47, 28, 56, 61, 43, 20, 42, 48], [46, 35, 12, 29, 52, 44, 25, 6], [14, 62, 58, 54, 1, 10, 53, 41, 13, 7]]</t>
+  </si>
+  <si>
+    <t>[[14, 45, 39, 4, 23, 10, 6], [22, 3, 57, 28, 41, 62], [55, 49, 50, 25, 26], [48, 18, 30, 61, 1, 36, 19], [37, 20, 56, 16, 40, 59, 32, 42], [24, 27, 60, 12, 38, 43, 8], [51, 52, 21, 11, 29, 58, 53], [7, 47, 35, 44, 2, 34, 33], [15, 9, 31, 17, 5, 13, 54, 46]]</t>
+  </si>
+  <si>
+    <t>[[13, 33, 39, 34, 7, 48, 15], [41, 22, 50, 47, 58, 46], [54, 49, 52, 11, 29, 9], [4, 5, 40, 16, 27, 55, 31], [23, 30, 38, 2, 43, 21, 57, 59, 37], [19, 1, 18, 28, 56, 61, 12, 24, 45], [10, 36, 20, 32, 60, 44, 8, 26], [6, 62, 51, 42, 25, 3, 35, 53, 14, 17]]</t>
+  </si>
+  <si>
+    <t>K分初始解v3-奖励函数v1-测试</t>
+  </si>
+  <si>
+    <t>[[6, 48, 62, 53, 54, 31, 15], [13, 35, 2, 59, 40, 46], [42, 1, 44, 27, 58], [19, 36, 61, 32, 43, 29, 34], [10, 24, 56, 28, 38, 52, 5, 37], [23, 18, 60, 21, 16, 47, 8], [4, 30, 3, 20, 11, 12, 33], [41, 22, 25, 50, 57, 51, 55], [17, 45, 39, 49, 26, 7, 9, 14]]</t>
+  </si>
+  <si>
+    <t>[[45, 19, 55, 34, 23, 13, 17], [4, 58, 36, 35, 1, 6], [41, 8, 24, 28, 42, 10], [22, 3, 57, 59, 61, 38, 62], [30, 18, 60, 12, 21, 56, 2, 20, 48], [51, 32, 27, 11, 53], [26, 50, 5, 16, 43, 52, 54], [33, 37, 47, 29, 44, 49, 7], [39, 9, 40, 25, 31, 46, 15, 14]]</t>
+  </si>
+  <si>
+    <t>[[6, 7, 41, 49, 25, 39, 33], [19, 4, 40, 5, 51, 26], [13, 36, 20, 18, 22], [10, 30, 32, 38, 50, 60, 8], [42, 44, 11, 56, 16, 57, 3, 34], [54, 58, 29, 52, 27, 28, 12, 21, 47, 1, 45], [48, 53, 37, 61, 43, 2, 59, 24, 35, 55], [15, 46, 14, 31, 62, 23, 9, 17]]</t>
+  </si>
+  <si>
+    <t>[[15, 48, 58, 34, 42, 13, 6], [33, 22, 8, 36, 19, 4], [51, 5, 38, 20, 18, 55], [54, 59, 43, 2, 40, 24, 23], [46, 29, 27, 21, 60, 32, 30, 1, 53], [7, 47, 44, 50, 16, 61, 57, 25, 41], [14, 49, 11, 52, 56, 28, 3, 10], [17, 9, 39, 31, 12, 26, 37, 35, 45, 62]]</t>
+  </si>
+  <si>
+    <t>[[15, 14, 10, 36, 55, 34, 62], [6, 13, 42, 27, 59, 2, 61, 28, 1, 24, 23, 31], [53, 44, 43, 40, 56, 52, 35], [41, 29, 47, 5, 21, 3, 18, 30, 19], [4, 58, 20, 32, 50, 16, 12, 60, 37], [54, 49, 25, 11, 38, 57, 8, 9], [46, 48, 7, 39, 51, 22, 26, 45, 33, 17]]</t>
+  </si>
+  <si>
+    <t>[[15, 13, 35, 34, 19, 33, 6], [46, 42, 53, 36, 8, 4], [48, 20, 18, 30, 41], [51, 52, 44, 21, 60, 3, 1], [31, 47, 29, 43, 2, 5, 24, 23], [37, 11, 27, 56, 16, 40, 32, 57, 50, 25, 26], [9, 62, 58, 61, 38, 59, 28, 12, 22, 55], [17, 14, 7, 49, 54, 10, 39, 45]]</t>
+  </si>
+  <si>
+    <t>[[48, 7, 33, 51, 9, 22, 39, 14], [62, 35, 11, 50, 60, 45], [31, 42, 47, 52, 56, 20, 49, 26], [13, 44, 29, 43, 38, 16, 12, 61, 28, 25], [54, 2, 40, 59, 57, 21, 36, 18, 23], [19, 53, 1, 5, 27, 32, 30, 3, 24, 10], [6, 15, 46, 37, 58, 34, 8, 4, 55, 41, 17]]</t>
+  </si>
+  <si>
+    <t>[[15, 46, 55, 24, 23, 54, 14], [6, 44, 27, 28, 1, 10], [42, 5, 2, 43, 38, 62], [45, 26, 59, 57, 12, 25, 49], [22, 20, 21, 32, 16, 11, 50, 61, 39], [4, 36, 47, 60, 56, 18, 30, 3, 41], [13, 34, 8, 35, 40, 29, 52, 58, 53, 7], [48, 51, 33, 19, 37, 31, 9, 17]]</t>
+  </si>
+  <si>
+    <t>[[15, 46, 54, 58, 4, 6, 17], [13, 25, 40, 32, 8, 19], [10, 49, 27, 20, 36, 39], [42, 52, 28, 16, 56, 18, 34], [1, 44, 29, 2, 24, 59, 5, 47, 45], [41, 35, 61, 57, 21, 50, 60, 3, 26], [53, 23, 43, 38, 11, 12, 30, 33], [48, 7, 62, 31, 37, 22, 55, 51, 14, 9]]</t>
+  </si>
+  <si>
+    <t>[[17, 33, 39, 25, 49, 62, 9, 14], [26, 51, 50, 20, 47, 7], [45, 3, 38, 57, 43, 11, 44, 48], [34, 22, 60, 21, 12, 16, 56, 52, 35, 13], [23, 1, 61, 59, 28, 2, 29, 42, 31], [55, 24, 32, 27, 40, 53], [4, 8, 18, 30, 5, 37, 46], [6, 41, 58, 36, 19, 10, 54, 15]]</t>
+  </si>
+  <si>
+    <t>[[17, 14, 10, 39, 55, 45, 6], [7, 49, 57, 25, 22, 41], [62, 28, 38, 1, 23], [9, 61, 12, 50, 3, 26, 13], [42, 35, 52, 56, 21, 20, 36, 4], [31, 44, 11, 16, 60, 30, 34], [53, 29, 43, 59, 32, 18, 19], [48, 47, 2, 27, 24, 5, 54], [15, 46, 37, 58, 40, 8, 51, 33]]</t>
+  </si>
+  <si>
+    <t>[[17, 62, 55, 34, 10, 13, 6], [45, 23, 1, 42, 41, 4], [39, 3, 61, 36, 35, 19], [22, 24, 18, 56, 30, 60, 8], [26, 25, 50, 21, 16, 28, 20, 32, 53], [51, 38, 57, 12, 43, 44, 2, 5, 58], [33, 49, 11, 59, 52, 29, 40, 54], [9, 7, 14, 31, 27, 47, 37, 48, 46, 15]]</t>
+  </si>
+  <si>
+    <t>[[7, 48, 51, 42, 54, 33, 15], [39, 49, 25, 47, 29, 46], [13, 44, 27, 52, 40, 31], [53, 20, 16, 43, 11, 5, 34], [35, 8, 56, 2, 21, 50, 36, 30, 19], [4, 60, 32, 3, 57, 59, 24, 18, 37], [45, 22, 38, 28, 61, 12, 55, 9], [17, 6, 26, 62, 1, 58, 23, 10, 41, 14]]</t>
+  </si>
+  <si>
+    <t>[[15, 7, 13, 48, 31, 6, 17], [10, 49, 11, 42, 4, 39], [62, 25, 38, 20, 22, 51], [24, 27, 57, 61, 3, 36, 8], [23, 2, 28, 16, 21, 56, 60, 35, 26], [55, 1, 44, 43, 52, 59, 12, 32, 50, 30, 18, 45], [46, 34, 29, 47, 5, 41, 33], [14, 54, 53, 40, 58, 37, 19, 9]]</t>
+  </si>
+  <si>
+    <t>[[9, 14, 47, 7, 53, 48, 15], [46, 49, 44, 29, 35, 13], [62, 11, 43, 52, 20, 42], [51, 27, 2, 28, 21, 24, 1], [31, 25, 38, 57, 16, 56, 61, 23, 34], [37, 40, 3, 59, 12, 18, 36, 22, 55], [33, 26, 5, 50, 30, 60, 8, 45], [17, 39, 54, 19, 32, 10, 58, 41, 4, 6]]</t>
+  </si>
+  <si>
+    <t>[[17, 15, 58, 19, 55, 10, 6], [33, 8, 18, 30, 36, 4], [54, 5, 2, 24, 23, 41], [62, 38, 52, 59, 57, 12, 28, 1, 45], [37, 27, 16, 56, 3, 42, 39], [51, 40, 11, 43, 32, 21, 60, 35, 22], [9, 47, 29, 50, 61, 20, 49, 13], [14, 46, 31, 34, 44, 26, 25, 53, 48, 7]]</t>
+  </si>
+  <si>
+    <t>[[6, 13, 42, 48, 31, 7, 15], [62, 36, 35, 52, 44, 46], [53, 1, 2, 27, 47, 34], [19, 58, 61, 56, 59, 29, 54], [37, 32, 60, 28, 40, 16, 43, 5, 14], [8, 30, 18, 24, 21, 57, 11, 50, 33], [41, 4, 3, 20, 38, 25, 49, 39], [17, 10, 23, 22, 55, 12, 51, 26, 45, 9]]</t>
+  </si>
+  <si>
+    <t>[[19, 14, 54, 40, 62, 33, 17], [10, 30, 32, 38, 25, 9], [23, 3, 2, 34, 49], [41, 1, 61, 27, 43, 52, 39], [36, 18, 28, 56, 57, 50, 11, 31], [13, 24, 59, 12, 16, 29, 37], [4, 55, 20, 21, 5, 47, 7], [22, 42, 60, 58, 44, 51, 48], [6, 45, 53, 35, 8, 26, 46, 15]]</t>
+  </si>
+  <si>
+    <t>[[15, 62, 42, 31, 19, 13, 6], [48, 10, 57, 40, 36, 25, 7], [54, 58, 27, 38, 28, 2, 32, 56, 12, 20, 49, 22], [4, 61, 52, 11, 16, 30, 50, 47, 39], [53, 51, 1, 43, 59, 21, 5, 44, 33], [46, 41, 8, 3, 29, 60, 35, 45], [17, 14, 37, 23, 24, 18, 55, 34, 26, 9]]</t>
   </si>
 </sst>
 </file>
@@ -1136,20 +1208,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="5" max="5" width="15.7019230769231" customWidth="1"/>
-    <col min="6" max="6" width="26.9230769230769" customWidth="1"/>
-    <col min="7" max="7" width="24.6826923076923" customWidth="1"/>
-    <col min="8" max="8" width="17.4711538461538" customWidth="1"/>
-    <col min="9" max="9" width="15.8557692307692" customWidth="1"/>
-    <col min="11" max="11" width="23.0769230769231" customWidth="1"/>
+    <col min="2" max="2" width="15.7019230769231" customWidth="1"/>
+    <col min="3" max="3" width="17.3076923076923" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="17.7788461538462" customWidth="1"/>
+    <col min="7" max="7" width="19.7115384615385" customWidth="1"/>
+    <col min="8" max="8" width="20.1826923076923" customWidth="1"/>
+    <col min="9" max="9" width="15.5384615384615" customWidth="1"/>
+    <col min="10" max="10" width="16.0192307692308" customWidth="1"/>
+    <col min="11" max="11" width="33.6538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1929,13 +2004,13 @@
         <v>3883441.04860979</v>
       </c>
       <c r="F21" s="2">
-        <v>45771.4827834096</v>
+        <v>45771.4827834144</v>
       </c>
       <c r="G21" s="2">
-        <v>45771.4838850785</v>
+        <v>45771.483885081</v>
       </c>
       <c r="H21" s="2">
-        <v>45771.4838981429</v>
+        <v>45771.4838981482</v>
       </c>
       <c r="I21">
         <v>96.312956</v>
@@ -1950,31 +2025,954 @@
         <v>95.184187</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>1860</v>
+      </c>
       <c r="D22" t="s">
         <v>35</v>
       </c>
       <c r="E22">
-        <f>MIN(E2:E21)</f>
-        <v>3821024.36255534</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
+        <v>3773296.39340193</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45790.8278325232</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45790.830992963</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45790.8310418634</v>
+      </c>
+      <c r="I22">
+        <v>277.286365</v>
+      </c>
+      <c r="J22">
+        <v>273.061268</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22">
+        <v>273.061268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1860</v>
+      </c>
       <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>3840033.63848274</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45790.8310858102</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45790.8342056019</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45790.8343860417</v>
+      </c>
+      <c r="I23">
+        <v>285.139905</v>
+      </c>
+      <c r="J23">
+        <v>269.54984</v>
+      </c>
+      <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="E23">
-        <f>AVERAGE(E2:E21)</f>
-        <v>3891036.54365093</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
+      <c r="L23">
+        <v>269.54984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1860</v>
+      </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <f>MAX(E2:E23)</f>
-        <v>3957802.08230072</v>
+        <v>3810930.4032128</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45790.8344296644</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45790.8377026273</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45790.8377862384</v>
+      </c>
+      <c r="I24">
+        <v>290.008239</v>
+      </c>
+      <c r="J24">
+        <v>282.78351</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24">
+        <v>282.78351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>1860</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>3789199.22451498</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45790.8378298032</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45790.8411558565</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45790.8412342477</v>
+      </c>
+      <c r="I25">
+        <v>294.144447</v>
+      </c>
+      <c r="J25">
+        <v>287.371945</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25">
+        <v>287.371945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>620</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>3891815.61398263</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45790.876045706</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45790.8773500347</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45790.8773898611</v>
+      </c>
+      <c r="I26">
+        <v>116.135263</v>
+      </c>
+      <c r="J26">
+        <v>112.693667</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26">
+        <v>112.693667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>3844</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>3745652.90957657</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45791.8899407755</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45791.8933012616</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45791.8957439815</v>
+      </c>
+      <c r="I27">
+        <v>501.396639</v>
+      </c>
+      <c r="J27">
+        <v>290.345301</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27">
+        <v>290.345301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>3844</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>3705008.02298961</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45791.8957868056</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45791.9013602778</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45791.9016904514</v>
+      </c>
+      <c r="I28">
+        <v>510.074654</v>
+      </c>
+      <c r="J28">
+        <v>481.547579</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28">
+        <v>481.547579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>3844</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>3693277.74537459</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45791.9017330556</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45791.9402124769</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45791.9410904282</v>
+      </c>
+      <c r="I29">
+        <v>3400.477505</v>
+      </c>
+      <c r="J29">
+        <v>3324.622558</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29">
+        <v>3324.622558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>3844</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>3725943.83887011</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45791.9411348148</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45791.9469763542</v>
+      </c>
+      <c r="H30" s="2">
+        <v>45791.9472339352</v>
+      </c>
+      <c r="I30">
+        <v>526.963592</v>
+      </c>
+      <c r="J30">
+        <v>504.708687</v>
+      </c>
+      <c r="K30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30">
+        <v>504.708687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>3844</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <v>3724709.68562781</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45791.9472776736</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45791.9516484259</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45791.9532176736</v>
+      </c>
+      <c r="I31">
+        <v>513.216257</v>
+      </c>
+      <c r="J31">
+        <v>377.632925</v>
+      </c>
+      <c r="K31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31">
+        <v>377.632925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>3844</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>3734533.55607059</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45791.9532614931</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45791.9927166319</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45791.9929086227</v>
+      </c>
+      <c r="I32">
+        <v>3425.511993</v>
+      </c>
+      <c r="J32">
+        <v>3408.924376</v>
+      </c>
+      <c r="K32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32">
+        <v>3408.924376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>3844</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33">
+        <v>3722898.22623184</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45791.9929516898</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45791.9992347917</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45792.0124389699</v>
+      </c>
+      <c r="I33">
+        <v>1683.700561</v>
+      </c>
+      <c r="J33">
+        <v>542.859777</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33">
+        <v>542.859777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>3844</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34">
+        <v>3725189.54452985</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45792.0124810185</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45792.0309407755</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45792.0311993171</v>
+      </c>
+      <c r="I34">
+        <v>1617.260829</v>
+      </c>
+      <c r="J34">
+        <v>1594.923494</v>
+      </c>
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34">
+        <v>1594.923494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>3844</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>3759033.73572981</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45792.0312423843</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45792.0716463194</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45792.0718079514</v>
+      </c>
+      <c r="I35">
+        <v>3504.864807</v>
+      </c>
+      <c r="J35">
+        <v>3490.899805</v>
+      </c>
+      <c r="K35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35">
+        <v>3490.899805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>3844</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>3756104.3819761</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45792.0718504051</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45792.0760924306</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45792.0917526852</v>
+      </c>
+      <c r="I36">
+        <v>1719.55719</v>
+      </c>
+      <c r="J36">
+        <v>366.5114</v>
+      </c>
+      <c r="K36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36">
+        <v>366.5114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>3844</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <v>3694482.63912049</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45792.0917947917</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45792.1102050579</v>
+      </c>
+      <c r="H37" s="2">
+        <v>45792.1111579861</v>
+      </c>
+      <c r="I37">
+        <v>1672.980215</v>
+      </c>
+      <c r="J37">
+        <v>1590.647335</v>
+      </c>
+      <c r="K37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37">
+        <v>1590.647335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>3844</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <v>3716316.61473867</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45792.111216713</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45792.1375993866</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45792.1384894792</v>
+      </c>
+      <c r="I38">
+        <v>2356.367064</v>
+      </c>
+      <c r="J38">
+        <v>2279.462514</v>
+      </c>
+      <c r="K38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38">
+        <v>2279.462514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>3844</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39">
+        <v>3675102.0334556</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45792.138532882</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45792.184681331</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45792.1858682292</v>
+      </c>
+      <c r="I39">
+        <v>4089.773798</v>
+      </c>
+      <c r="J39">
+        <v>3987.225906</v>
+      </c>
+      <c r="K39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39">
+        <v>3987.225906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>3844</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>3753979.90263415</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45792.1859115972</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45792.1928590046</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45792.2152403588</v>
+      </c>
+      <c r="I40">
+        <v>2534.005305</v>
+      </c>
+      <c r="J40">
+        <v>600.25621</v>
+      </c>
+      <c r="K40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40">
+        <v>600.25621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>3844</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41">
+        <v>3741500.73812453</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45792.2152838426</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45792.2486124421</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45792.2507570833</v>
+      </c>
+      <c r="I41">
+        <v>3064.887788</v>
+      </c>
+      <c r="J41">
+        <v>2879.591574</v>
+      </c>
+      <c r="K41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41">
+        <v>2879.591574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>3844</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42">
+        <v>3721690.51629494</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45792.2508167361</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45792.268732338</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45792.2707079861</v>
+      </c>
+      <c r="I42">
+        <v>1718.604784</v>
+      </c>
+      <c r="J42">
+        <v>1547.908059</v>
+      </c>
+      <c r="K42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42">
+        <v>1547.908059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>3844</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>3725221.38728866</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45792.2707743518</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45792.3115089352</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45792.3116868171</v>
+      </c>
+      <c r="I43">
+        <v>3534.836853</v>
+      </c>
+      <c r="J43">
+        <v>3519.467493</v>
+      </c>
+      <c r="K43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43">
+        <v>3519.467493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>3844</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44">
+        <v>3733760.15254939</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45792.3117302315</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45792.3172463194</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45792.3305850347</v>
+      </c>
+      <c r="I44">
+        <v>1629.055241</v>
+      </c>
+      <c r="J44">
+        <v>476.590312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44">
+        <v>476.590312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>3844</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45">
+        <v>3739481.49290349</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45792.3306273843</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45792.3348284259</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45792.3364696296</v>
+      </c>
+      <c r="I45">
+        <v>504.770007</v>
+      </c>
+      <c r="J45">
+        <v>362.970516</v>
+      </c>
+      <c r="K45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45">
+        <v>362.970516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>3844</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46">
+        <v>3760545.99641398</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45792.3365126149</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45792.3408074531</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45792.342344071</v>
+      </c>
+      <c r="I46">
+        <v>503.83781</v>
+      </c>
+      <c r="J46">
+        <v>371.074023</v>
+      </c>
+      <c r="K46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46">
+        <v>371.074023</v>
       </c>
     </row>
   </sheetData>
